--- a/数据整理/stocks/A股/深证主板/002056-横店东磁.xlsx
+++ b/数据整理/stocks/A股/深证主板/002056-横店东磁.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008180</t>
+          <t>010003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>同泰慧利混合A</t>
+          <t>景顺长城电子信息产业股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>46.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7188</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008181</t>
+          <t>000478</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>同泰慧利混合C</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>47.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5754</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010003</t>
+          <t>009931</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票A</t>
+          <t>淳厚欣享一年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.69</t>
+          <t>16.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4802</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>92.69</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.71</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000478</t>
+          <t>008186</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>淳厚信睿核心精选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000978</t>
+          <t>009939</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城量化精选股票</t>
+          <t>淳厚欣享一年持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005126</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>银河量化稳进混合</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.92</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>1.81</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>5</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005633</t>
+          <t>008187</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>建信中证500指数增强C</t>
+          <t>淳厚信睿核心精选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005429</t>
+          <t>007811</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>渤海汇金睿选混合A</t>
+          <t>淳厚信泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>34.94</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005430</t>
+          <t>008180</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>渤海汇金睿选混合C</t>
+          <t>同泰慧利混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>34.94</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -782,15 +892,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>93.84</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008112</t>
+          <t>007812</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强A</t>
+          <t>淳厚信泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -828,25 +958,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008113</t>
+          <t>008112</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强C</t>
+          <t>中泰中证500指数增强A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>91.74</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1.40</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>5</v>
       </c>
     </row>
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005021</t>
+          <t>005633</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>渤海汇金量化汇盈灵活配置混合</t>
+          <t>建信中证500指数增强C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009931</t>
+          <t>008113</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>淳厚欣享一年持有期混合A</t>
+          <t>中泰中证500指数增强C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009939</t>
+          <t>008181</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>淳厚欣享一年持有期混合C</t>
+          <t>同泰慧利混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007811</t>
+          <t>005126</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>淳厚信泽灵活配置混合A</t>
+          <t>银河量化稳进混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>76.08</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>007812</t>
+          <t>005429</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>淳厚信泽灵活配置混合C</t>
+          <t>渤海汇金睿选混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>76.08</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>34.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008186</t>
+          <t>005021</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>淳厚信睿核心精选混合A</t>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008187</t>
+          <t>005430</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>淳厚信睿核心精选混合C</t>
+          <t>渤海汇金睿选混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>34.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1057,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,15 +1288,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004818</t>
+          <t>002148</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
+          <t>国寿安保稳惠灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.55</t>
+          <t>12.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5372</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004819</t>
+          <t>168002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.55</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>69.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4309</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005434</t>
+          <t>000478</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华睿投灵活配置混合</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>71.01</t>
+          <t>41.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3961</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000478</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005633</t>
+          <t>501097</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信中证500指数增强C</t>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006729</t>
+          <t>004818</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家中证500指数增强A</t>
+          <t>国寿安保目标策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>29.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006730</t>
+          <t>005434</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>万家中证500指数增强C</t>
+          <t>鹏华睿投灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000978</t>
+          <t>004819</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城量化精选股票</t>
+          <t>国寿安保目标策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>83.80</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>29.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501097</t>
+          <t>001675</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+          <t>江信同福灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23.57</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001675</t>
+          <t>005633</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>江信同福灵活配置混合A</t>
+          <t>建信中证500指数增强C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001676</t>
+          <t>006729</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>江信同福灵活配置混合C</t>
+          <t>万家中证500指数增强A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002148</t>
+          <t>167705</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国寿安保稳惠灵活配置混合</t>
+          <t>德邦量化新锐股票(LOF) A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>72.00</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1434,25 +1774,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>167705</t>
+          <t>001676</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>德邦量化新锐股票(LOF) A</t>
+          <t>江信同福灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1472,15 +1822,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>93.48</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>0.93</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>168002</t>
+          <t>006730</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+          <t>万家中证500指数增强C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>69.79</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002056-横店东磁.xlsx
+++ b/数据整理/stocks/A股/深证主板/002056-横店东磁.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1885,4 +1886,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7747</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002056-横店东磁.xlsx
+++ b/数据整理/stocks/A股/深证主板/002056-横店东磁.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2474,4 +2475,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004772</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004773</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002056-横店东磁.xlsx
+++ b/数据整理/stocks/A股/深证主板/002056-横店东磁.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2759,4 +2760,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002056-横店东磁.xlsx
+++ b/数据整理/stocks/A股/深证主板/002056-横店东磁.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2768,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2779,17 +2780,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2799,14 +2820,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.47</v>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7168</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2815,14 +2858,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.47</v>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6429</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2831,14 +2896,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.75</v>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3930</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2847,13 +2934,757 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004481</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝第三产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.82</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002056-横店东磁.xlsx
+++ b/数据整理/stocks/A股/深证主板/002056-横店东磁.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3583,7 +3584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3594,17 +3595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3614,14 +3635,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.51</v>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5699</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3630,14 +3673,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.47</v>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3646,14 +3711,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.47</v>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3662,14 +3749,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.75</v>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3678,13 +3787,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.82</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002056-横店东磁.xlsx
+++ b/数据整理/stocks/A股/深证主板/002056-横店东磁.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3982,7 +3983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3993,17 +3994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4013,14 +4034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.06</v>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7298</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4029,14 +4072,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.51</v>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4208</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4045,14 +4110,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.47</v>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1342</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4061,14 +4148,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.47</v>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>62.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9968</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4077,14 +4186,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.75</v>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9178</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -4093,13 +4224,3067 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4645</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1538</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0848</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0760</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7985</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7762</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7729</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6648</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6540</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6238</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5759</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013533</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5660</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5405</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010892</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5322</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4619</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4588</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4422</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3821</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3791</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3437</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501064</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1942</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>78.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014191</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009640</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014192</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000567</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发聚祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013711</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010893</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009641</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008162</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014455</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中银成长优选股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>82</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>20</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.82</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002056-横店东磁.xlsx
+++ b/数据整理/stocks/A股/深证主板/002056-横店东磁.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D2" t="n">
-        <v>31.66</v>
+        <v>16.15</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>1.06</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>3.51</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>0.47</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.47</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>20</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.82</v>
       </c>
     </row>
@@ -600,6 +617,2410 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5175</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0104</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0692</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9877</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014725</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发成长动力三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9781</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8562</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7440</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5581</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5222</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5183</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4418</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010892</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3848</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3373</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013533</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3203</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3039</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2995</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2821</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时数字经济18个月封闭混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015322</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014726</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发成长动力三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013711</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015386</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银成长优选股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011729</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银聚享混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东海海睿致远混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013774</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010893</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时数字经济18个月封闭混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>74.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013775</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014455</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银成长优选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>016402</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011730</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银聚享混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3767,7 +6188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4165,7 +6586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4979,7 +7400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5263,7 +7684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5851,7 +8272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6477,7 +8898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002056-横店东磁.xlsx
+++ b/数据整理/stocks/A股/深证主板/002056-横店东磁.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>16.15</v>
+        <v>16.07</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D3" t="n">
-        <v>31.66</v>
+        <v>16.15</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D4" t="n">
-        <v>1.06</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>3.51</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>0.47</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.47</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>20</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.82</v>
       </c>
     </row>
@@ -616,7 +633,1981 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7188</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5754</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4802</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>34.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>34.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>121.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2047</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9723</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014725</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发成长动力三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8656</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0126</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5019</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015322</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4883</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4070</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3208</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014726</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发成长动力三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2860</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时数字经济混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013711</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发成长新动能混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发成长新动能混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013929</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银证券恒瑞9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013930</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银证券恒瑞9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时数字经济混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>016950</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3020,7 +5011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6188,7 +8179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6586,7 +8577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7400,7 +9391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7684,7 +9675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8272,7 +10263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8896,820 +10887,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城电子信息产业股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>46.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7188</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000478</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>47.95</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5754</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009931</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>淳厚欣享一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.79</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4802</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010004</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城电子信息产业股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2775</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008186</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>淳厚信睿核心精选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2300</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009939</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>淳厚欣享一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1238</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000978</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>景顺长城量化精选股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>85.04</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1048</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008187</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>淳厚信睿核心精选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0737</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007811</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>76.08</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0713</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008180</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>同泰慧利混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0540</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006682</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>景顺长城中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0519</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007812</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>76.08</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008112</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0137</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005633</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008113</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008181</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>同泰慧利混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005126</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>银河量化稳进混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005429</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>渤海汇金睿选混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>34.94</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005021</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>渤海汇金量化汇盈灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005430</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>渤海汇金睿选混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>34.94</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>